--- a/dashboards_v2/Production_Dashboard_Zones.xlsx
+++ b/dashboards_v2/Production_Dashboard_Zones.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ZONE_CALCULATORS" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="RESOURCE_MGR" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="UPLOAD_READY_PRODUCTION" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="CROSS_REFERENCE" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZONE CALCULATORS" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RESOURCE MGR" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="UPLOAD READY PRODUCTION" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="CROSS REFERENCE" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -348,12 +348,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$A$11:$A$18</f>
+              <f>'ZONE CALCULATORS'!$A$11:$A$18</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$D$11:$D$18</f>
+              <f>'ZONE CALCULATORS'!$D$11:$D$18</f>
             </numRef>
           </val>
         </ser>
@@ -373,12 +373,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$A$11:$A$18</f>
+              <f>'ZONE CALCULATORS'!$A$11:$A$18</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$E$11:$E$18</f>
+              <f>'ZONE CALCULATORS'!$E$11:$E$18</f>
             </numRef>
           </val>
         </ser>
@@ -413,7 +413,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$B$11:$B$18</f>
+              <f>'ZONE CALCULATORS'!$B$11:$B$18</f>
             </numRef>
           </val>
         </ser>
@@ -528,12 +528,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$A$151:$A$158</f>
+              <f>'ZONE CALCULATORS'!$A$151:$A$158</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$H$151:$H$158</f>
+              <f>'ZONE CALCULATORS'!$H$151:$H$158</f>
             </numRef>
           </val>
         </ser>
@@ -633,12 +633,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$A$11:$A$18</f>
+              <f>'ZONE CALCULATORS'!$A$11:$A$18</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$H$11:$H$18</f>
+              <f>'ZONE CALCULATORS'!$H$11:$H$18</f>
             </numRef>
           </val>
         </ser>
@@ -731,12 +731,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$A$46:$A$53</f>
+              <f>'ZONE CALCULATORS'!$A$46:$A$53</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$D$46:$D$53</f>
+              <f>'ZONE CALCULATORS'!$D$46:$D$53</f>
             </numRef>
           </val>
         </ser>
@@ -756,12 +756,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$A$46:$A$53</f>
+              <f>'ZONE CALCULATORS'!$A$46:$A$53</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$E$46:$E$53</f>
+              <f>'ZONE CALCULATORS'!$E$46:$E$53</f>
             </numRef>
           </val>
         </ser>
@@ -796,7 +796,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$B$46:$B$53</f>
+              <f>'ZONE CALCULATORS'!$B$46:$B$53</f>
             </numRef>
           </val>
         </ser>
@@ -911,12 +911,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$A$46:$A$53</f>
+              <f>'ZONE CALCULATORS'!$A$46:$A$53</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$H$46:$H$53</f>
+              <f>'ZONE CALCULATORS'!$H$46:$H$53</f>
             </numRef>
           </val>
         </ser>
@@ -1009,12 +1009,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$A$81:$A$88</f>
+              <f>'ZONE CALCULATORS'!$A$81:$A$88</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$D$81:$D$88</f>
+              <f>'ZONE CALCULATORS'!$D$81:$D$88</f>
             </numRef>
           </val>
         </ser>
@@ -1034,12 +1034,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$A$81:$A$88</f>
+              <f>'ZONE CALCULATORS'!$A$81:$A$88</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$E$81:$E$88</f>
+              <f>'ZONE CALCULATORS'!$E$81:$E$88</f>
             </numRef>
           </val>
         </ser>
@@ -1074,7 +1074,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$B$81:$B$88</f>
+              <f>'ZONE CALCULATORS'!$B$81:$B$88</f>
             </numRef>
           </val>
         </ser>
@@ -1189,12 +1189,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$A$81:$A$88</f>
+              <f>'ZONE CALCULATORS'!$A$81:$A$88</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$H$81:$H$88</f>
+              <f>'ZONE CALCULATORS'!$H$81:$H$88</f>
             </numRef>
           </val>
         </ser>
@@ -1287,12 +1287,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$A$116:$A$123</f>
+              <f>'ZONE CALCULATORS'!$A$116:$A$123</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$D$116:$D$123</f>
+              <f>'ZONE CALCULATORS'!$D$116:$D$123</f>
             </numRef>
           </val>
         </ser>
@@ -1312,12 +1312,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$A$116:$A$123</f>
+              <f>'ZONE CALCULATORS'!$A$116:$A$123</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$E$116:$E$123</f>
+              <f>'ZONE CALCULATORS'!$E$116:$E$123</f>
             </numRef>
           </val>
         </ser>
@@ -1352,7 +1352,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$B$116:$B$123</f>
+              <f>'ZONE CALCULATORS'!$B$116:$B$123</f>
             </numRef>
           </val>
         </ser>
@@ -1467,12 +1467,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$A$116:$A$123</f>
+              <f>'ZONE CALCULATORS'!$A$116:$A$123</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$H$116:$H$123</f>
+              <f>'ZONE CALCULATORS'!$H$116:$H$123</f>
             </numRef>
           </val>
         </ser>
@@ -1565,12 +1565,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$A$151:$A$158</f>
+              <f>'ZONE CALCULATORS'!$A$151:$A$158</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$D$151:$D$158</f>
+              <f>'ZONE CALCULATORS'!$D$151:$D$158</f>
             </numRef>
           </val>
         </ser>
@@ -1590,12 +1590,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$A$151:$A$158</f>
+              <f>'ZONE CALCULATORS'!$A$151:$A$158</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$E$151:$E$158</f>
+              <f>'ZONE CALCULATORS'!$E$151:$E$158</f>
             </numRef>
           </val>
         </ser>
@@ -1630,7 +1630,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'ZONE_CALCULATORS'!$B$151:$B$158</f>
+              <f>'ZONE CALCULATORS'!$B$151:$B$158</f>
             </numRef>
           </val>
         </ser>
@@ -6023,7 +6023,7 @@
         </is>
       </c>
       <c r="B22" s="36" t="n">
-        <v>0</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="23">

--- a/dashboards_v2/Production_Dashboard_Zones.xlsx
+++ b/dashboards_v2/Production_Dashboard_Zones.xlsx
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="B5" s="5" t="n">
-        <v>156</v>
+        <v>759578</v>
       </c>
     </row>
     <row r="6">
@@ -2371,7 +2371,7 @@
         <v/>
       </c>
       <c r="H11" s="12">
-        <f>IF(C11="Y", 60, 40)</f>
+        <f>IF(C11="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I11" s="4">
@@ -2410,7 +2410,7 @@
         <v/>
       </c>
       <c r="H12" s="12">
-        <f>IF(C12="Y", 60, 40)</f>
+        <f>IF(C12="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I12" s="4">
@@ -2449,7 +2449,7 @@
         <v/>
       </c>
       <c r="H13" s="12">
-        <f>IF(C13="Y", 60, 40)</f>
+        <f>IF(C13="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I13" s="4">
@@ -2488,7 +2488,7 @@
         <v/>
       </c>
       <c r="H14" s="12">
-        <f>IF(C14="Y", 60, 40)</f>
+        <f>IF(C14="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I14" s="4">
@@ -2527,7 +2527,7 @@
         <v/>
       </c>
       <c r="H15" s="12">
-        <f>IF(C15="Y", 60, 40)</f>
+        <f>IF(C15="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I15" s="4">
@@ -2566,7 +2566,7 @@
         <v/>
       </c>
       <c r="H16" s="12">
-        <f>IF(C16="Y", 60, 40)</f>
+        <f>IF(C16="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I16" s="4">
@@ -2605,7 +2605,7 @@
         <v/>
       </c>
       <c r="H17" s="12">
-        <f>IF(C17="Y", 60, 40)</f>
+        <f>IF(C17="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I17" s="4">
@@ -2644,7 +2644,7 @@
         <v/>
       </c>
       <c r="H18" s="12">
-        <f>IF(C18="Y", 60, 40)</f>
+        <f>IF(C18="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I18" s="4">
@@ -2681,7 +2681,7 @@
         </is>
       </c>
       <c r="B40" s="5" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41">
@@ -2768,7 +2768,7 @@
         </is>
       </c>
       <c r="B46" s="7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C46" s="8" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v/>
       </c>
       <c r="H46" s="12">
-        <f>IF(C46="Y", 60, 40)</f>
+        <f>IF(C46="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I46" s="4">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="B47" s="7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C47" s="8" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v/>
       </c>
       <c r="H47" s="12">
-        <f>IF(C47="Y", 60, 40)</f>
+        <f>IF(C47="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I47" s="4">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="B48" s="7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C48" s="8" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v/>
       </c>
       <c r="H48" s="12">
-        <f>IF(C48="Y", 60, 40)</f>
+        <f>IF(C48="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I48" s="4">
@@ -2885,7 +2885,7 @@
         </is>
       </c>
       <c r="B49" s="7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C49" s="8" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v/>
       </c>
       <c r="H49" s="12">
-        <f>IF(C49="Y", 60, 40)</f>
+        <f>IF(C49="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I49" s="4">
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="B50" s="7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C50" s="8" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v/>
       </c>
       <c r="H50" s="12">
-        <f>IF(C50="Y", 60, 40)</f>
+        <f>IF(C50="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I50" s="4">
@@ -2963,7 +2963,7 @@
         </is>
       </c>
       <c r="B51" s="7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C51" s="8" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v/>
       </c>
       <c r="H51" s="12">
-        <f>IF(C51="Y", 60, 40)</f>
+        <f>IF(C51="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I51" s="4">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B52" s="7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C52" s="8" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v/>
       </c>
       <c r="H52" s="12">
-        <f>IF(C52="Y", 60, 40)</f>
+        <f>IF(C52="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I52" s="4">
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="B53" s="7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C53" s="8" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v/>
       </c>
       <c r="H53" s="12">
-        <f>IF(C53="Y", 60, 40)</f>
+        <f>IF(C53="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I53" s="4">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B75" s="5" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76">
@@ -3189,7 +3189,7 @@
         </is>
       </c>
       <c r="B81" s="7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C81" s="8" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v/>
       </c>
       <c r="H81" s="12">
-        <f>IF(C81="Y", 60, 40)</f>
+        <f>IF(C81="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I81" s="4">
@@ -3228,7 +3228,7 @@
         </is>
       </c>
       <c r="B82" s="7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C82" s="8" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v/>
       </c>
       <c r="H82" s="12">
-        <f>IF(C82="Y", 60, 40)</f>
+        <f>IF(C82="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I82" s="4">
@@ -3267,7 +3267,7 @@
         </is>
       </c>
       <c r="B83" s="7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C83" s="8" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v/>
       </c>
       <c r="H83" s="12">
-        <f>IF(C83="Y", 60, 40)</f>
+        <f>IF(C83="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I83" s="4">
@@ -3306,7 +3306,7 @@
         </is>
       </c>
       <c r="B84" s="7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C84" s="8" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v/>
       </c>
       <c r="H84" s="12">
-        <f>IF(C84="Y", 60, 40)</f>
+        <f>IF(C84="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I84" s="4">
@@ -3345,7 +3345,7 @@
         </is>
       </c>
       <c r="B85" s="7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C85" s="8" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v/>
       </c>
       <c r="H85" s="12">
-        <f>IF(C85="Y", 60, 40)</f>
+        <f>IF(C85="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I85" s="4">
@@ -3384,7 +3384,7 @@
         </is>
       </c>
       <c r="B86" s="7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C86" s="8" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v/>
       </c>
       <c r="H86" s="12">
-        <f>IF(C86="Y", 60, 40)</f>
+        <f>IF(C86="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I86" s="4">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B87" s="7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C87" s="8" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v/>
       </c>
       <c r="H87" s="12">
-        <f>IF(C87="Y", 60, 40)</f>
+        <f>IF(C87="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I87" s="4">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B88" s="7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C88" s="8" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v/>
       </c>
       <c r="H88" s="12">
-        <f>IF(C88="Y", 60, 40)</f>
+        <f>IF(C88="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I88" s="4">
@@ -3523,7 +3523,7 @@
         </is>
       </c>
       <c r="B110" s="5" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="111">
@@ -3610,7 +3610,7 @@
         </is>
       </c>
       <c r="B116" s="7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C116" s="8" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v/>
       </c>
       <c r="H116" s="12">
-        <f>IF(C116="Y", 60, 40)</f>
+        <f>IF(C116="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I116" s="4">
@@ -3649,7 +3649,7 @@
         </is>
       </c>
       <c r="B117" s="7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C117" s="8" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v/>
       </c>
       <c r="H117" s="12">
-        <f>IF(C117="Y", 60, 40)</f>
+        <f>IF(C117="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I117" s="4">
@@ -3688,7 +3688,7 @@
         </is>
       </c>
       <c r="B118" s="7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C118" s="8" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v/>
       </c>
       <c r="H118" s="12">
-        <f>IF(C118="Y", 60, 40)</f>
+        <f>IF(C118="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I118" s="4">
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="B119" s="7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C119" s="8" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v/>
       </c>
       <c r="H119" s="12">
-        <f>IF(C119="Y", 60, 40)</f>
+        <f>IF(C119="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I119" s="4">
@@ -3766,7 +3766,7 @@
         </is>
       </c>
       <c r="B120" s="7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C120" s="8" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v/>
       </c>
       <c r="H120" s="12">
-        <f>IF(C120="Y", 60, 40)</f>
+        <f>IF(C120="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I120" s="4">
@@ -3805,7 +3805,7 @@
         </is>
       </c>
       <c r="B121" s="7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C121" s="8" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v/>
       </c>
       <c r="H121" s="12">
-        <f>IF(C121="Y", 60, 40)</f>
+        <f>IF(C121="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I121" s="4">
@@ -3844,7 +3844,7 @@
         </is>
       </c>
       <c r="B122" s="7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C122" s="8" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v/>
       </c>
       <c r="H122" s="12">
-        <f>IF(C122="Y", 60, 40)</f>
+        <f>IF(C122="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I122" s="4">
@@ -3883,7 +3883,7 @@
         </is>
       </c>
       <c r="B123" s="7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C123" s="8" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v/>
       </c>
       <c r="H123" s="12">
-        <f>IF(C123="Y", 60, 40)</f>
+        <f>IF(C123="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I123" s="4">
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="B145" s="5" t="n">
-        <v>0</v>
+        <v>60390</v>
       </c>
     </row>
     <row r="146">
@@ -4031,7 +4031,7 @@
         </is>
       </c>
       <c r="B151" s="7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C151" s="8" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v/>
       </c>
       <c r="H151" s="12">
-        <f>IF(C151="Y", 60, 40)</f>
+        <f>IF(C151="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I151" s="4">
@@ -4070,7 +4070,7 @@
         </is>
       </c>
       <c r="B152" s="7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C152" s="8" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v/>
       </c>
       <c r="H152" s="12">
-        <f>IF(C152="Y", 60, 40)</f>
+        <f>IF(C152="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I152" s="4">
@@ -4109,7 +4109,7 @@
         </is>
       </c>
       <c r="B153" s="7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C153" s="8" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v/>
       </c>
       <c r="H153" s="12">
-        <f>IF(C153="Y", 60, 40)</f>
+        <f>IF(C153="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I153" s="4">
@@ -4148,7 +4148,7 @@
         </is>
       </c>
       <c r="B154" s="7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C154" s="8" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v/>
       </c>
       <c r="H154" s="12">
-        <f>IF(C154="Y", 60, 40)</f>
+        <f>IF(C154="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I154" s="4">
@@ -4187,7 +4187,7 @@
         </is>
       </c>
       <c r="B155" s="7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C155" s="8" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
         <v/>
       </c>
       <c r="H155" s="12">
-        <f>IF(C155="Y", 60, 40)</f>
+        <f>IF(C155="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I155" s="4">
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="B156" s="7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C156" s="8" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v/>
       </c>
       <c r="H156" s="12">
-        <f>IF(C156="Y", 60, 40)</f>
+        <f>IF(C156="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I156" s="4">
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="B157" s="7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C157" s="8" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v/>
       </c>
       <c r="H157" s="12">
-        <f>IF(C157="Y", 60, 40)</f>
+        <f>IF(C157="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I157" s="4">
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B158" s="7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C158" s="8" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v/>
       </c>
       <c r="H158" s="12">
-        <f>IF(C158="Y", 60, 40)</f>
+        <f>IF(C158="Y", 55.439, 35.439)</f>
         <v/>
       </c>
       <c r="I158" s="4">
@@ -4366,7 +4366,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H18">
     <cfRule type="expression" priority="2" dxfId="1">
-      <formula>H11&gt;40</formula>
+      <formula>H11&gt;35.439</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46:G53">
@@ -4376,7 +4376,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="H46:H53">
     <cfRule type="expression" priority="4" dxfId="1">
-      <formula>H46&gt;40</formula>
+      <formula>H46&gt;35.439</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81:G88">
@@ -4386,7 +4386,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="H81:H88">
     <cfRule type="expression" priority="6" dxfId="1">
-      <formula>H81&gt;40</formula>
+      <formula>H81&gt;35.439</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G116:G123">
@@ -4396,7 +4396,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="H116:H123">
     <cfRule type="expression" priority="8" dxfId="1">
-      <formula>H116&gt;40</formula>
+      <formula>H116&gt;35.439</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G151:G158">
@@ -4406,7 +4406,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="H151:H158">
     <cfRule type="expression" priority="10" dxfId="1">
-      <formula>H151&gt;40</formula>
+      <formula>H151&gt;35.439</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4420,7 +4420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4549,18 +4549,18 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="28" t="inlineStr">
-        <is>
-          <t>West</t>
+      <c r="A9" s="26" t="inlineStr">
+        <is>
+          <t>Center</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Section 1</t>
+          <t>Section 4</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D9" s="9">
         <f>C9*5</f>
@@ -4573,18 +4573,18 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="28" t="inlineStr">
-        <is>
-          <t>West</t>
+      <c r="A10" s="26" t="inlineStr">
+        <is>
+          <t>Center</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Section 2</t>
+          <t>Section 5</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D10" s="9">
         <f>C10*5</f>
@@ -4604,7 +4604,7 @@
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Section 3</t>
+          <t>Section 1</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
@@ -4621,14 +4621,14 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="29" t="inlineStr">
-        <is>
-          <t>North</t>
+      <c r="A12" s="28" t="inlineStr">
+        <is>
+          <t>West</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Section 1</t>
+          <t>Section 2</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
@@ -4645,14 +4645,14 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="29" t="inlineStr">
-        <is>
-          <t>North</t>
+      <c r="A13" s="28" t="inlineStr">
+        <is>
+          <t>West</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Section 2</t>
+          <t>Section 3</t>
         </is>
       </c>
       <c r="C13" s="7" t="n">
@@ -4669,14 +4669,14 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="29" t="inlineStr">
-        <is>
-          <t>North</t>
+      <c r="A14" s="28" t="inlineStr">
+        <is>
+          <t>West</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Section 3</t>
+          <t>Section 4</t>
         </is>
       </c>
       <c r="C14" s="7" t="n">
@@ -4693,14 +4693,14 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="30" t="inlineStr">
-        <is>
-          <t>East</t>
+      <c r="A15" s="28" t="inlineStr">
+        <is>
+          <t>West</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Section 1</t>
+          <t>Section 5</t>
         </is>
       </c>
       <c r="C15" s="7" t="n">
@@ -4717,14 +4717,14 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="30" t="inlineStr">
-        <is>
-          <t>East</t>
+      <c r="A16" s="29" t="inlineStr">
+        <is>
+          <t>North</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Section 2</t>
+          <t>Section 1</t>
         </is>
       </c>
       <c r="C16" s="7" t="n">
@@ -4741,14 +4741,14 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="30" t="inlineStr">
-        <is>
-          <t>East</t>
+      <c r="A17" s="29" t="inlineStr">
+        <is>
+          <t>North</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Section 3</t>
+          <t>Section 2</t>
         </is>
       </c>
       <c r="C17" s="7" t="n">
@@ -4765,14 +4765,14 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="31" t="inlineStr">
-        <is>
-          <t>South</t>
+      <c r="A18" s="29" t="inlineStr">
+        <is>
+          <t>North</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Section 1</t>
+          <t>Section 3</t>
         </is>
       </c>
       <c r="C18" s="7" t="n">
@@ -4789,14 +4789,14 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="31" t="inlineStr">
-        <is>
-          <t>South</t>
+      <c r="A19" s="29" t="inlineStr">
+        <is>
+          <t>North</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Section 2</t>
+          <t>Section 4</t>
         </is>
       </c>
       <c r="C19" s="7" t="n">
@@ -4813,14 +4813,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="31" t="inlineStr">
-        <is>
-          <t>South</t>
+      <c r="A20" s="29" t="inlineStr">
+        <is>
+          <t>North</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Section 3</t>
+          <t>Section 5</t>
         </is>
       </c>
       <c r="C20" s="7" t="n">
@@ -4836,286 +4836,526 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="30" t="inlineStr">
+        <is>
+          <t>East</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>Section 1</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9">
+        <f>C21*5</f>
+        <v/>
+      </c>
+      <c r="E21" s="27" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="30" t="inlineStr">
+        <is>
+          <t>East</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Section 2</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="9">
+        <f>C22*5</f>
+        <v/>
+      </c>
+      <c r="E22" s="27" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="30" t="inlineStr">
+        <is>
+          <t>East</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>Section 3</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="9">
+        <f>C23*5</f>
+        <v/>
+      </c>
+      <c r="E23" s="27" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
     <row r="24">
-      <c r="A24" s="24" t="inlineStr">
+      <c r="A24" s="30" t="inlineStr">
+        <is>
+          <t>East</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>Section 4</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="9">
+        <f>C24*5</f>
+        <v/>
+      </c>
+      <c r="E24" s="27" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="30" t="inlineStr">
+        <is>
+          <t>East</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>Section 5</t>
+        </is>
+      </c>
+      <c r="C25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="9">
+        <f>C25*5</f>
+        <v/>
+      </c>
+      <c r="E25" s="27" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="31" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>Section 1</t>
+        </is>
+      </c>
+      <c r="C26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="9">
+        <f>C26*5</f>
+        <v/>
+      </c>
+      <c r="E26" s="27" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="31" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>Section 2</t>
+        </is>
+      </c>
+      <c r="C27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="9">
+        <f>C27*5</f>
+        <v/>
+      </c>
+      <c r="E27" s="27" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="31" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>Section 3</t>
+        </is>
+      </c>
+      <c r="C28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="9">
+        <f>C28*5</f>
+        <v/>
+      </c>
+      <c r="E28" s="27" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="31" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>Section 4</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="9">
+        <f>C29*5</f>
+        <v/>
+      </c>
+      <c r="E29" s="27" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="31" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>Section 5</t>
+        </is>
+      </c>
+      <c r="C30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="9">
+        <f>C30*5</f>
+        <v/>
+      </c>
+      <c r="E30" s="27" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="24" t="inlineStr">
         <is>
           <t>SECTION B: EXPANSION RECOMMENDATIONS BY ZONE</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="25" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="25" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="B26" s="25" t="inlineStr">
+      <c r="B36" s="25" t="inlineStr">
         <is>
           <t>Target Capacity</t>
         </is>
       </c>
-      <c r="C26" s="25" t="inlineStr">
+      <c r="C36" s="25" t="inlineStr">
         <is>
           <t>Current Machines</t>
         </is>
       </c>
-      <c r="D26" s="25" t="inlineStr">
+      <c r="D36" s="25" t="inlineStr">
         <is>
           <t>Capacity Gap</t>
         </is>
       </c>
-      <c r="E26" s="25" t="inlineStr">
+      <c r="E36" s="25" t="inlineStr">
         <is>
           <t>Recommendation</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="26" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="26" t="inlineStr">
         <is>
           <t>Center</t>
         </is>
       </c>
-      <c r="B27" s="5">
-        <f>ZONE_CALCULATORS!B19</f>
-        <v/>
-      </c>
-      <c r="C27" s="4" t="n">
-        <v>156</v>
-      </c>
-      <c r="D27" s="9">
-        <f>B27-(C27*200)</f>
-        <v/>
-      </c>
-      <c r="E27" s="32">
-        <f>IF(D27&gt;0, "M1 Opt: "&amp;ROUNDUP(D27/200,0)&amp;" @ $10.6k ea | " &amp;"M3 Opt: "&amp;ROUNDUP(D27/1000,0)&amp;" @ $155.4k ea", "OK")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="28" t="inlineStr">
+      <c r="B37" s="5">
+        <f>'ZONE CALCULATORS'!B19</f>
+        <v/>
+      </c>
+      <c r="C37" s="4" t="n">
+        <v>759578</v>
+      </c>
+      <c r="D37" s="9">
+        <f>B37-(C37*200)</f>
+        <v/>
+      </c>
+      <c r="E37" s="32">
+        <f>IF(D37&gt;0, "M1 Opt: "&amp;ROUNDUP(D37/200,0)&amp;" @ $10.6k ea | " &amp;"M3 Opt: "&amp;ROUNDUP(D37/1000,0)&amp;" @ $155.4k ea", "OK")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="28" t="inlineStr">
         <is>
           <t>West</t>
         </is>
       </c>
-      <c r="B28" s="5">
-        <f>ZONE_CALCULATORS!B54</f>
-        <v/>
-      </c>
-      <c r="C28" s="4" t="n">
+      <c r="B38" s="5">
+        <f>'ZONE CALCULATORS'!B54</f>
+        <v/>
+      </c>
+      <c r="C38" s="4" t="n">
+        <v>86</v>
+      </c>
+      <c r="D38" s="9">
+        <f>B38-(C38*200)</f>
+        <v/>
+      </c>
+      <c r="E38" s="32">
+        <f>IF(D38&gt;0, "M1 Opt: "&amp;ROUNDUP(D38/200,0)&amp;" @ $10.6k ea | " &amp;"M3 Opt: "&amp;ROUNDUP(D38/1000,0)&amp;" @ $155.4k ea", "OK")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="29" t="inlineStr">
+        <is>
+          <t>North</t>
+        </is>
+      </c>
+      <c r="B39" s="5">
+        <f>'ZONE CALCULATORS'!B89</f>
+        <v/>
+      </c>
+      <c r="C39" s="4" t="n">
+        <v>78</v>
+      </c>
+      <c r="D39" s="9">
+        <f>B39-(C39*200)</f>
+        <v/>
+      </c>
+      <c r="E39" s="32">
+        <f>IF(D39&gt;0, "M1 Opt: "&amp;ROUNDUP(D39/200,0)&amp;" @ $10.6k ea | " &amp;"M3 Opt: "&amp;ROUNDUP(D39/1000,0)&amp;" @ $155.4k ea", "OK")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="30" t="inlineStr">
+        <is>
+          <t>East</t>
+        </is>
+      </c>
+      <c r="B40" s="5">
+        <f>'ZONE CALCULATORS'!B124</f>
+        <v/>
+      </c>
+      <c r="C40" s="4" t="n">
+        <v>78</v>
+      </c>
+      <c r="D40" s="9">
+        <f>B40-(C40*200)</f>
+        <v/>
+      </c>
+      <c r="E40" s="32">
+        <f>IF(D40&gt;0, "M1 Opt: "&amp;ROUNDUP(D40/200,0)&amp;" @ $10.6k ea | " &amp;"M3 Opt: "&amp;ROUNDUP(D40/1000,0)&amp;" @ $155.4k ea", "OK")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="31" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="B41" s="5">
+        <f>'ZONE CALCULATORS'!B159</f>
+        <v/>
+      </c>
+      <c r="C41" s="4" t="n">
+        <v>60390</v>
+      </c>
+      <c r="D41" s="9">
+        <f>B41-(C41*200)</f>
+        <v/>
+      </c>
+      <c r="E41" s="32">
+        <f>IF(D41&gt;0, "M1 Opt: "&amp;ROUNDUP(D41/200,0)&amp;" @ $10.6k ea | " &amp;"M3 Opt: "&amp;ROUNDUP(D41/1000,0)&amp;" @ $155.4k ea", "OK")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="24" t="inlineStr">
+        <is>
+          <t>SECTION C: REAL ESTATE (MODULES) BY ZONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="25" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="B47" s="25" t="inlineStr">
+        <is>
+          <t>Machines</t>
+        </is>
+      </c>
+      <c r="C47" s="25" t="inlineStr">
+        <is>
+          <t>Module Slots</t>
+        </is>
+      </c>
+      <c r="D47" s="25" t="inlineStr">
+        <is>
+          <t>Free Slots</t>
+        </is>
+      </c>
+      <c r="E47" s="25" t="inlineStr">
+        <is>
+          <t>Recommendation</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="26" t="inlineStr">
+        <is>
+          <t>Center</t>
+        </is>
+      </c>
+      <c r="B48" s="4" t="n">
+        <v>759578</v>
+      </c>
+      <c r="C48" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D28" s="9">
-        <f>B28-(C28*200)</f>
-        <v/>
-      </c>
-      <c r="E28" s="32">
-        <f>IF(D28&gt;0, "M1 Opt: "&amp;ROUNDUP(D28/200,0)&amp;" @ $10.6k ea | " &amp;"M3 Opt: "&amp;ROUNDUP(D28/1000,0)&amp;" @ $155.4k ea", "OK")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="29" t="inlineStr">
+      <c r="D48" s="9">
+        <f>C48-B48</f>
+        <v/>
+      </c>
+      <c r="E48" s="27">
+        <f>IF(D48&lt;5, "Buy module in Center", "OK")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="28" t="inlineStr">
+        <is>
+          <t>West</t>
+        </is>
+      </c>
+      <c r="B49" s="4" t="n">
+        <v>86</v>
+      </c>
+      <c r="C49" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="9">
+        <f>C49-B49</f>
+        <v/>
+      </c>
+      <c r="E49" s="27">
+        <f>IF(D49&lt;5, "Buy module in West", "OK")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="29" t="inlineStr">
         <is>
           <t>North</t>
         </is>
       </c>
-      <c r="B29" s="5">
-        <f>ZONE_CALCULATORS!B89</f>
-        <v/>
-      </c>
-      <c r="C29" s="4" t="n">
+      <c r="B50" s="4" t="n">
+        <v>78</v>
+      </c>
+      <c r="C50" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D29" s="9">
-        <f>B29-(C29*200)</f>
-        <v/>
-      </c>
-      <c r="E29" s="32">
-        <f>IF(D29&gt;0, "M1 Opt: "&amp;ROUNDUP(D29/200,0)&amp;" @ $10.6k ea | " &amp;"M3 Opt: "&amp;ROUNDUP(D29/1000,0)&amp;" @ $155.4k ea", "OK")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="30" t="inlineStr">
+      <c r="D50" s="9">
+        <f>C50-B50</f>
+        <v/>
+      </c>
+      <c r="E50" s="27">
+        <f>IF(D50&lt;5, "Buy module in North", "OK")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="30" t="inlineStr">
         <is>
           <t>East</t>
         </is>
       </c>
-      <c r="B30" s="5">
-        <f>ZONE_CALCULATORS!B124</f>
-        <v/>
-      </c>
-      <c r="C30" s="4" t="n">
+      <c r="B51" s="4" t="n">
+        <v>78</v>
+      </c>
+      <c r="C51" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D30" s="9">
-        <f>B30-(C30*200)</f>
-        <v/>
-      </c>
-      <c r="E30" s="32">
-        <f>IF(D30&gt;0, "M1 Opt: "&amp;ROUNDUP(D30/200,0)&amp;" @ $10.6k ea | " &amp;"M3 Opt: "&amp;ROUNDUP(D30/1000,0)&amp;" @ $155.4k ea", "OK")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="31" t="inlineStr">
+      <c r="D51" s="9">
+        <f>C51-B51</f>
+        <v/>
+      </c>
+      <c r="E51" s="27">
+        <f>IF(D51&lt;5, "Buy module in East", "OK")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="31" t="inlineStr">
         <is>
           <t>South</t>
         </is>
       </c>
-      <c r="B31" s="5">
-        <f>ZONE_CALCULATORS!B159</f>
-        <v/>
-      </c>
-      <c r="C31" s="4" t="n">
+      <c r="B52" s="4" t="n">
+        <v>60390</v>
+      </c>
+      <c r="C52" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D31" s="9">
-        <f>B31-(C31*200)</f>
-        <v/>
-      </c>
-      <c r="E31" s="32">
-        <f>IF(D31&gt;0, "M1 Opt: "&amp;ROUNDUP(D31/200,0)&amp;" @ $10.6k ea | " &amp;"M3 Opt: "&amp;ROUNDUP(D31/1000,0)&amp;" @ $155.4k ea", "OK")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="24" t="inlineStr">
-        <is>
-          <t>SECTION C: REAL ESTATE (MODULES) BY ZONE</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="25" t="inlineStr">
-        <is>
-          <t>Zone</t>
-        </is>
-      </c>
-      <c r="B37" s="25" t="inlineStr">
-        <is>
-          <t>Machines</t>
-        </is>
-      </c>
-      <c r="C37" s="25" t="inlineStr">
-        <is>
-          <t>Module Slots</t>
-        </is>
-      </c>
-      <c r="D37" s="25" t="inlineStr">
-        <is>
-          <t>Free Slots</t>
-        </is>
-      </c>
-      <c r="E37" s="25" t="inlineStr">
-        <is>
-          <t>Recommendation</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="26" t="inlineStr">
-        <is>
-          <t>Center</t>
-        </is>
-      </c>
-      <c r="B38" s="4" t="n">
-        <v>156</v>
-      </c>
-      <c r="C38" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="9">
-        <f>C38-B38</f>
-        <v/>
-      </c>
-      <c r="E38" s="27">
-        <f>IF(D38&lt;5, "Buy module in Center", "OK")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="28" t="inlineStr">
-        <is>
-          <t>West</t>
-        </is>
-      </c>
-      <c r="B39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" s="9">
-        <f>C39-B39</f>
-        <v/>
-      </c>
-      <c r="E39" s="27">
-        <f>IF(D39&lt;5, "Buy module in West", "OK")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="29" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="B40" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" s="9">
-        <f>C40-B40</f>
-        <v/>
-      </c>
-      <c r="E40" s="27">
-        <f>IF(D40&lt;5, "Buy module in North", "OK")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="30" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="B41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" s="9">
-        <f>C41-B41</f>
-        <v/>
-      </c>
-      <c r="E41" s="27">
-        <f>IF(D41&lt;5, "Buy module in East", "OK")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="31" t="inlineStr">
-        <is>
-          <t>South</t>
-        </is>
-      </c>
-      <c r="B42" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" s="9">
-        <f>C42-B42</f>
-        <v/>
-      </c>
-      <c r="E42" s="27">
-        <f>IF(D42&lt;5, "Buy module in South", "OK")</f>
+      <c r="D52" s="9">
+        <f>C52-B52</f>
+        <v/>
+      </c>
+      <c r="E52" s="27">
+        <f>IF(D52&lt;5, "Buy module in South", "OK")</f>
         <v/>
       </c>
     </row>
@@ -5130,7 +5370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5199,11 +5439,11 @@
         </is>
       </c>
       <c r="C6" s="9">
-        <f>ZONE_CALCULATORS!G19</f>
+        <f>'ZONE CALCULATORS'!G19</f>
         <v/>
       </c>
       <c r="D6" s="9">
-        <f>ZONE_CALCULATORS!C11</f>
+        <f>'ZONE CALCULATORS'!C11</f>
         <v/>
       </c>
     </row>
@@ -5219,11 +5459,11 @@
         </is>
       </c>
       <c r="C7" s="9">
-        <f>ZONE_CALCULATORS!G54</f>
+        <f>'ZONE CALCULATORS'!G54</f>
         <v/>
       </c>
       <c r="D7" s="9">
-        <f>ZONE_CALCULATORS!C46</f>
+        <f>'ZONE CALCULATORS'!C46</f>
         <v/>
       </c>
     </row>
@@ -5239,11 +5479,11 @@
         </is>
       </c>
       <c r="C8" s="9">
-        <f>ZONE_CALCULATORS!G89</f>
+        <f>'ZONE CALCULATORS'!G89</f>
         <v/>
       </c>
       <c r="D8" s="9">
-        <f>ZONE_CALCULATORS!C81</f>
+        <f>'ZONE CALCULATORS'!C81</f>
         <v/>
       </c>
     </row>
@@ -5259,11 +5499,11 @@
         </is>
       </c>
       <c r="C9" s="9">
-        <f>ZONE_CALCULATORS!G124</f>
+        <f>'ZONE CALCULATORS'!G124</f>
         <v/>
       </c>
       <c r="D9" s="9">
-        <f>ZONE_CALCULATORS!C116</f>
+        <f>'ZONE CALCULATORS'!C116</f>
         <v/>
       </c>
     </row>
@@ -5279,11 +5519,11 @@
         </is>
       </c>
       <c r="C10" s="9">
-        <f>ZONE_CALCULATORS!G159</f>
+        <f>'ZONE CALCULATORS'!G159</f>
         <v/>
       </c>
       <c r="D10" s="9">
-        <f>ZONE_CALCULATORS!C151</f>
+        <f>'ZONE CALCULATORS'!C151</f>
         <v/>
       </c>
     </row>
@@ -5502,11 +5742,11 @@
         </is>
       </c>
       <c r="C29" s="9">
-        <f>RESOURCE_MGR!C6</f>
+        <f>'RESOURCE MGR'!C6</f>
         <v/>
       </c>
       <c r="D29" s="9">
-        <f>RESOURCE_MGR!D6</f>
+        <f>'RESOURCE MGR'!D6</f>
         <v/>
       </c>
     </row>
@@ -5522,11 +5762,11 @@
         </is>
       </c>
       <c r="C30" s="9">
-        <f>RESOURCE_MGR!C7</f>
+        <f>'RESOURCE MGR'!C7</f>
         <v/>
       </c>
       <c r="D30" s="9">
-        <f>RESOURCE_MGR!D7</f>
+        <f>'RESOURCE MGR'!D7</f>
         <v/>
       </c>
     </row>
@@ -5542,51 +5782,51 @@
         </is>
       </c>
       <c r="C31" s="9">
-        <f>RESOURCE_MGR!C8</f>
+        <f>'RESOURCE MGR'!C8</f>
         <v/>
       </c>
       <c r="D31" s="9">
-        <f>RESOURCE_MGR!D8</f>
+        <f>'RESOURCE MGR'!D8</f>
         <v/>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="28" t="inlineStr">
-        <is>
-          <t>West</t>
+      <c r="A32" s="26" t="inlineStr">
+        <is>
+          <t>Center</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Section 1</t>
+          <t>Section 4</t>
         </is>
       </c>
       <c r="C32" s="9">
-        <f>RESOURCE_MGR!C9</f>
+        <f>'RESOURCE MGR'!C9</f>
         <v/>
       </c>
       <c r="D32" s="9">
-        <f>RESOURCE_MGR!D9</f>
+        <f>'RESOURCE MGR'!D9</f>
         <v/>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="28" t="inlineStr">
-        <is>
-          <t>West</t>
+      <c r="A33" s="26" t="inlineStr">
+        <is>
+          <t>Center</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Section 2</t>
+          <t>Section 5</t>
         </is>
       </c>
       <c r="C33" s="9">
-        <f>RESOURCE_MGR!C10</f>
+        <f>'RESOURCE MGR'!C10</f>
         <v/>
       </c>
       <c r="D33" s="9">
-        <f>RESOURCE_MGR!D10</f>
+        <f>'RESOURCE MGR'!D10</f>
         <v/>
       </c>
     </row>
@@ -5598,195 +5838,395 @@
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
+          <t>Section 1</t>
+        </is>
+      </c>
+      <c r="C34" s="9">
+        <f>'RESOURCE MGR'!C11</f>
+        <v/>
+      </c>
+      <c r="D34" s="9">
+        <f>'RESOURCE MGR'!D11</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>West</t>
+        </is>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>Section 2</t>
+        </is>
+      </c>
+      <c r="C35" s="9">
+        <f>'RESOURCE MGR'!C12</f>
+        <v/>
+      </c>
+      <c r="D35" s="9">
+        <f>'RESOURCE MGR'!D12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>West</t>
+        </is>
+      </c>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
           <t>Section 3</t>
         </is>
       </c>
-      <c r="C34" s="9">
-        <f>RESOURCE_MGR!C11</f>
-        <v/>
-      </c>
-      <c r="D34" s="9">
-        <f>RESOURCE_MGR!D11</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="29" t="inlineStr">
+      <c r="C36" s="9">
+        <f>'RESOURCE MGR'!C13</f>
+        <v/>
+      </c>
+      <c r="D36" s="9">
+        <f>'RESOURCE MGR'!D13</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>West</t>
+        </is>
+      </c>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>Section 4</t>
+        </is>
+      </c>
+      <c r="C37" s="9">
+        <f>'RESOURCE MGR'!C14</f>
+        <v/>
+      </c>
+      <c r="D37" s="9">
+        <f>'RESOURCE MGR'!D14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>West</t>
+        </is>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>Section 5</t>
+        </is>
+      </c>
+      <c r="C38" s="9">
+        <f>'RESOURCE MGR'!C15</f>
+        <v/>
+      </c>
+      <c r="D38" s="9">
+        <f>'RESOURCE MGR'!D15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="29" t="inlineStr">
         <is>
           <t>North</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B39" s="4" t="inlineStr">
         <is>
           <t>Section 1</t>
         </is>
       </c>
-      <c r="C35" s="9">
-        <f>RESOURCE_MGR!C12</f>
-        <v/>
-      </c>
-      <c r="D35" s="9">
-        <f>RESOURCE_MGR!D12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="29" t="inlineStr">
+      <c r="C39" s="9">
+        <f>'RESOURCE MGR'!C16</f>
+        <v/>
+      </c>
+      <c r="D39" s="9">
+        <f>'RESOURCE MGR'!D16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="29" t="inlineStr">
         <is>
           <t>North</t>
         </is>
       </c>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="B40" s="4" t="inlineStr">
         <is>
           <t>Section 2</t>
         </is>
       </c>
-      <c r="C36" s="9">
-        <f>RESOURCE_MGR!C13</f>
-        <v/>
-      </c>
-      <c r="D36" s="9">
-        <f>RESOURCE_MGR!D13</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="29" t="inlineStr">
+      <c r="C40" s="9">
+        <f>'RESOURCE MGR'!C17</f>
+        <v/>
+      </c>
+      <c r="D40" s="9">
+        <f>'RESOURCE MGR'!D17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="29" t="inlineStr">
         <is>
           <t>North</t>
         </is>
       </c>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="B41" s="4" t="inlineStr">
         <is>
           <t>Section 3</t>
         </is>
       </c>
-      <c r="C37" s="9">
-        <f>RESOURCE_MGR!C14</f>
-        <v/>
-      </c>
-      <c r="D37" s="9">
-        <f>RESOURCE_MGR!D14</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="30" t="inlineStr">
+      <c r="C41" s="9">
+        <f>'RESOURCE MGR'!C18</f>
+        <v/>
+      </c>
+      <c r="D41" s="9">
+        <f>'RESOURCE MGR'!D18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="29" t="inlineStr">
+        <is>
+          <t>North</t>
+        </is>
+      </c>
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>Section 4</t>
+        </is>
+      </c>
+      <c r="C42" s="9">
+        <f>'RESOURCE MGR'!C19</f>
+        <v/>
+      </c>
+      <c r="D42" s="9">
+        <f>'RESOURCE MGR'!D19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="29" t="inlineStr">
+        <is>
+          <t>North</t>
+        </is>
+      </c>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>Section 5</t>
+        </is>
+      </c>
+      <c r="C43" s="9">
+        <f>'RESOURCE MGR'!C20</f>
+        <v/>
+      </c>
+      <c r="D43" s="9">
+        <f>'RESOURCE MGR'!D20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="30" t="inlineStr">
         <is>
           <t>East</t>
         </is>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="B44" s="4" t="inlineStr">
         <is>
           <t>Section 1</t>
         </is>
       </c>
-      <c r="C38" s="9">
-        <f>RESOURCE_MGR!C15</f>
-        <v/>
-      </c>
-      <c r="D38" s="9">
-        <f>RESOURCE_MGR!D15</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="30" t="inlineStr">
+      <c r="C44" s="9">
+        <f>'RESOURCE MGR'!C21</f>
+        <v/>
+      </c>
+      <c r="D44" s="9">
+        <f>'RESOURCE MGR'!D21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="30" t="inlineStr">
         <is>
           <t>East</t>
         </is>
       </c>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="B45" s="4" t="inlineStr">
         <is>
           <t>Section 2</t>
         </is>
       </c>
-      <c r="C39" s="9">
-        <f>RESOURCE_MGR!C16</f>
-        <v/>
-      </c>
-      <c r="D39" s="9">
-        <f>RESOURCE_MGR!D16</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="30" t="inlineStr">
+      <c r="C45" s="9">
+        <f>'RESOURCE MGR'!C22</f>
+        <v/>
+      </c>
+      <c r="D45" s="9">
+        <f>'RESOURCE MGR'!D22</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="30" t="inlineStr">
         <is>
           <t>East</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="B46" s="4" t="inlineStr">
         <is>
           <t>Section 3</t>
         </is>
       </c>
-      <c r="C40" s="9">
-        <f>RESOURCE_MGR!C17</f>
-        <v/>
-      </c>
-      <c r="D40" s="9">
-        <f>RESOURCE_MGR!D17</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="31" t="inlineStr">
+      <c r="C46" s="9">
+        <f>'RESOURCE MGR'!C23</f>
+        <v/>
+      </c>
+      <c r="D46" s="9">
+        <f>'RESOURCE MGR'!D23</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="30" t="inlineStr">
+        <is>
+          <t>East</t>
+        </is>
+      </c>
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>Section 4</t>
+        </is>
+      </c>
+      <c r="C47" s="9">
+        <f>'RESOURCE MGR'!C24</f>
+        <v/>
+      </c>
+      <c r="D47" s="9">
+        <f>'RESOURCE MGR'!D24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="30" t="inlineStr">
+        <is>
+          <t>East</t>
+        </is>
+      </c>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>Section 5</t>
+        </is>
+      </c>
+      <c r="C48" s="9">
+        <f>'RESOURCE MGR'!C25</f>
+        <v/>
+      </c>
+      <c r="D48" s="9">
+        <f>'RESOURCE MGR'!D25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="31" t="inlineStr">
         <is>
           <t>South</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="B49" s="4" t="inlineStr">
         <is>
           <t>Section 1</t>
         </is>
       </c>
-      <c r="C41" s="9">
-        <f>RESOURCE_MGR!C18</f>
-        <v/>
-      </c>
-      <c r="D41" s="9">
-        <f>RESOURCE_MGR!D18</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="31" t="inlineStr">
+      <c r="C49" s="9">
+        <f>'RESOURCE MGR'!C26</f>
+        <v/>
+      </c>
+      <c r="D49" s="9">
+        <f>'RESOURCE MGR'!D26</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="31" t="inlineStr">
         <is>
           <t>South</t>
         </is>
       </c>
-      <c r="B42" s="4" t="inlineStr">
+      <c r="B50" s="4" t="inlineStr">
         <is>
           <t>Section 2</t>
         </is>
       </c>
-      <c r="C42" s="9">
-        <f>RESOURCE_MGR!C19</f>
-        <v/>
-      </c>
-      <c r="D42" s="9">
-        <f>RESOURCE_MGR!D19</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="31" t="inlineStr">
+      <c r="C50" s="9">
+        <f>'RESOURCE MGR'!C27</f>
+        <v/>
+      </c>
+      <c r="D50" s="9">
+        <f>'RESOURCE MGR'!D27</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="31" t="inlineStr">
         <is>
           <t>South</t>
         </is>
       </c>
-      <c r="B43" s="4" t="inlineStr">
+      <c r="B51" s="4" t="inlineStr">
         <is>
           <t>Section 3</t>
         </is>
       </c>
-      <c r="C43" s="9">
-        <f>RESOURCE_MGR!C20</f>
-        <v/>
-      </c>
-      <c r="D43" s="9">
-        <f>RESOURCE_MGR!D20</f>
+      <c r="C51" s="9">
+        <f>'RESOURCE MGR'!C28</f>
+        <v/>
+      </c>
+      <c r="D51" s="9">
+        <f>'RESOURCE MGR'!D28</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="31" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>Section 4</t>
+        </is>
+      </c>
+      <c r="C52" s="9">
+        <f>'RESOURCE MGR'!C29</f>
+        <v/>
+      </c>
+      <c r="D52" s="9">
+        <f>'RESOURCE MGR'!D29</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="31" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>Section 5</t>
+        </is>
+      </c>
+      <c r="C53" s="9">
+        <f>'RESOURCE MGR'!C30</f>
+        <v/>
+      </c>
+      <c r="D53" s="9">
+        <f>'RESOURCE MGR'!D30</f>
         <v/>
       </c>
     </row>
@@ -6023,7 +6463,7 @@
         </is>
       </c>
       <c r="B22" s="36" t="n">
-        <v>80000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
